--- a/weeklyReport/2_volumeProfile/ethVolumeProfileDf.xlsx
+++ b/weeklyReport/2_volumeProfile/ethVolumeProfileDf.xlsx
@@ -405,13 +405,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1584.24</v>
+        <v>1641.58</v>
       </c>
       <c r="C2">
-        <v>1564.89</v>
+        <v>1614.81</v>
       </c>
       <c r="D2">
-        <v>1601.2</v>
+        <v>1685.94</v>
       </c>
     </row>
   </sheetData>
